--- a/biology/Médecine/Syndrome_d'Abdallat-Davis-Farrage/Syndrome_d'Abdallat-Davis-Farrage.xlsx
+++ b/biology/Médecine/Syndrome_d'Abdallat-Davis-Farrage/Syndrome_d'Abdallat-Davis-Farrage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Abdallat-Davis-Farrage</t>
+          <t>Syndrome_d'Abdallat-Davis-Farrage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'Abdallat-Davis-Farrage est une forme de phacomatose, une maladie du système nerveux central accompagnée d'anomalies de la pigmentation cutanée. 
-Le syndrome est nommé d'après l'équipe qui l'a décrit dans une famille jordanienne en 1980[1].
+Le syndrome est nommé d'après l'équipe qui l'a décrit dans une famille jordanienne en 1980.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Abdallat-Davis-Farrage</t>
+          <t>Syndrome_d'Abdallat-Davis-Farrage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Albinisme
 Pigmentation cutanée irrégulière
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Abdallat-Davis-Farrage</t>
+          <t>Syndrome_d'Abdallat-Davis-Farrage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission de fait sur un mode autosomique récessif, et n'est pas liée au sexe.
 </t>
